--- a/PQ.xlsx
+++ b/PQ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\v832813\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11466530-F5D5-43C3-8A76-AE00B8AE8A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02441A84-47AD-43B8-B947-524B700CFE0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,9 +68,6 @@
     <t>Lộ trình di chuyển, đi chơi</t>
   </si>
   <si>
-    <t>chiều 20</t>
-  </si>
-  <si>
     <t>Hạ cánh xuống sân bay PQ</t>
   </si>
   <si>
@@ -136,13 +133,16 @@
 buổi chiều về lại Địa Trung hải, đi vài nơi tham quan nổi tiếng</t>
   </si>
   <si>
-    <t>Ngày 24</t>
-  </si>
-  <si>
     <t>Bay về Hà Nội</t>
   </si>
   <si>
     <t>Dậy ăn sáng, chuẩn bị ra sân bay, có mặt sân bay trước lúc 8h10</t>
+  </si>
+  <si>
+    <t>chiều 19</t>
+  </si>
+  <si>
+    <t>Ngày 20</t>
   </si>
 </sst>
 </file>
@@ -246,7 +246,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -255,22 +270,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -559,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,26 +573,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3">
-        <v>45797</v>
+        <v>45796</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
+      <c r="A2" s="12"/>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3">
-        <v>45801</v>
+        <v>45800</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
@@ -602,103 +602,103 @@
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:5" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="E7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="10" t="s">
+    </row>
+    <row r="8" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="10" t="s">
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="255" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="13" t="s">
+      <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="11" t="s">
+      <c r="C11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="2" t="s">
+      <c r="D11" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="E11" s="4"/>
     </row>
